--- a/Русский готовность.xlsx
+++ b/Русский готовность.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\russian_EGE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8E2FB-E5A8-4B4A-9383-F3E24D19B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Моя готовность" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Соответствие первичных и тестов" sheetId="2" r:id="rId5"/>
+    <sheet name="Моя готовность" sheetId="1" r:id="rId1"/>
+    <sheet name="Соответствие первичных и тестов" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,17 +79,23 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Выучить </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t>группы союзов, частиц и т.д. Для заполнения отрывка</t>
     </r>
@@ -242,77 +268,117 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="GoloS"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="GoloS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -320,7 +386,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -366,38 +432,56 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -412,8 +496,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -423,6 +509,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -434,6 +521,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -442,6 +531,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -450,28 +542,35 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -486,6 +585,7 @@
       <bottom style="thin">
         <color rgb="FFEBEBEB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -500,6 +600,7 @@
       <bottom style="thin">
         <color rgb="FFEBEBEB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -514,6 +615,7 @@
       <bottom style="thin">
         <color rgb="FFEBEBEB"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -528,138 +630,122 @@
       <bottom style="thin">
         <color rgb="FFEBEBEB"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -849,32 +935,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.71"/>
-    <col customWidth="1" min="2" max="2" width="7.14"/>
-    <col customWidth="1" min="3" max="3" width="10.71"/>
-    <col customWidth="1" min="4" max="4" width="53.57"/>
-    <col customWidth="1" min="5" max="5" width="59.86"/>
-    <col customWidth="1" min="6" max="6" width="38.57"/>
-    <col customWidth="1" min="7" max="7" width="27.86"/>
-    <col customWidth="1" min="8" max="8" width="11.29"/>
-    <col customWidth="1" min="9" max="9" width="11.43"/>
-    <col customWidth="1" min="10" max="25" width="8.71"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,665 +970,665 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+    <row r="5" spans="1:9">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="14" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="16">
+      <c r="G11" s="8"/>
+      <c r="H11" s="12">
         <v>0.5</v>
       </c>
-      <c r="I11" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="14" t="s">
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="14" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="16">
+      <c r="G13" s="8"/>
+      <c r="H13" s="12">
         <v>0.5</v>
       </c>
-      <c r="I13" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="14" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="8">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="16">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="12">
         <v>0.5</v>
       </c>
-      <c r="I15" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="14" t="s">
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="16">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="12">
         <v>0.5</v>
       </c>
-      <c r="I16" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="14" t="s">
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="16">
+      <c r="G17" s="8"/>
+      <c r="H17" s="12">
         <v>0.5</v>
       </c>
-      <c r="I17" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="14" t="s">
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="8">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="16">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="12">
         <v>0.5</v>
       </c>
-      <c r="I18" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="14" t="s">
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="16">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="12">
         <v>0.5</v>
       </c>
-      <c r="I19" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="22">
-        <v>16.0</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="17">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="16">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12">
         <v>0.5</v>
       </c>
-      <c r="I20" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22">
-        <v>17.0</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="14" t="s">
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="17">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="16">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="12">
         <v>0.5</v>
       </c>
-      <c r="I21" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22">
-        <v>18.0</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="14" t="s">
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="17">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="16">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="12">
         <v>0.5</v>
       </c>
-      <c r="I22" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22">
-        <v>19.0</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14" t="s">
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="17">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="16">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="12">
         <v>0.5</v>
       </c>
-      <c r="I23" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22">
-        <v>20.0</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="14" t="s">
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="17">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="16">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="12">
         <v>0.5</v>
       </c>
-      <c r="I24" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22">
-        <v>21.0</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="14" t="s">
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="17">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="16">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12">
         <v>0.5</v>
       </c>
-      <c r="I25" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14" t="s">
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B26" s="8">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="26" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B27" s="8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B28" s="8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B30" s="8">
+        <v>26</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="28" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="12">
+        <v>2</v>
+      </c>
+      <c r="I30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B31" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="12">
-        <v>27.0</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B32" s="8">
+        <v>27</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="16">
-        <v>19.0</v>
-      </c>
-      <c r="I32" s="16">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="4" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="12">
+        <v>19</v>
+      </c>
+      <c r="I32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
+      <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="G34" s="31" t="s">
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="G34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="22">
         <f>SUM(H5:H30)+H32</f>
         <v>39.5</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="G35" s="33" t="s">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="G35" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="34">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="4" t="s">
+      <c r="H35" s="24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B36" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2499,482 +2587,481 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B31:I31"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="E2" s="36" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="37">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="37">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="37">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="37">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="37">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="37">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="37">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="37">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="37">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="37">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="37">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="38">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="38">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="39">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="39">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="39">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="39">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="39">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="39">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="39">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="39">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="39">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="39">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="40">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="40">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="39">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="39">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="39">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="39">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="41">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="41">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="39">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="39">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="39">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="39">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="39">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="39">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="39">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="39">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="39">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="39">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="39">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="39">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="39">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="39">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="39">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="39">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="39">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="39">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="39">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="39">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="39">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="39">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="39">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="39">
-        <v>58.0</v>
-      </c>
-      <c r="C32" s="42"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="39">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="39">
-        <v>60.0</v>
-      </c>
-      <c r="C33" s="42"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="39">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="39">
-        <v>61.0</v>
-      </c>
-      <c r="C34" s="42"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="39">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="39">
-        <v>63.0</v>
-      </c>
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="39">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="39">
-        <v>64.0</v>
-      </c>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="39">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="39">
-        <v>66.0</v>
-      </c>
-      <c r="C37" s="42"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="39">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="39">
-        <v>67.0</v>
-      </c>
-      <c r="C38" s="42"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="39">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="39">
-        <v>69.0</v>
-      </c>
-      <c r="C39" s="42"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="39">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="39">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="39">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="39">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="43">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="43">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="43">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="43">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="43">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="43">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="43">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="43">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="43">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="43">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="43">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="43">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="43">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="43">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="43">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="43">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="43">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="43">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="43">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="43">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="43">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="43">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="43">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="43">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="43">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="43">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="43">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="43">
-        <v>100.0</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <v>58</v>
+      </c>
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29">
+        <v>60</v>
+      </c>
+      <c r="C33" s="32"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29">
+        <v>61</v>
+      </c>
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29">
+        <v>63</v>
+      </c>
+      <c r="C35" s="32"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29">
+        <v>64</v>
+      </c>
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29">
+        <v>66</v>
+      </c>
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29">
+        <v>67</v>
+      </c>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="29">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29">
+        <v>69</v>
+      </c>
+      <c r="C39" s="32"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="29">
+        <v>40</v>
+      </c>
+      <c r="B41" s="29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="33">
+        <v>41</v>
+      </c>
+      <c r="B42" s="33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="33">
+        <v>42</v>
+      </c>
+      <c r="B43" s="33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="33">
+        <v>43</v>
+      </c>
+      <c r="B44" s="33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="33">
+        <v>44</v>
+      </c>
+      <c r="B45" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="33">
+        <v>45</v>
+      </c>
+      <c r="B46" s="33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="33">
+        <v>46</v>
+      </c>
+      <c r="B47" s="33">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="33">
+        <v>47</v>
+      </c>
+      <c r="B48" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="33">
+        <v>48</v>
+      </c>
+      <c r="B49" s="33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="33">
+        <v>49</v>
+      </c>
+      <c r="B50" s="33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="33">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="33">
+        <v>51</v>
+      </c>
+      <c r="B52" s="33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="33">
+        <v>52</v>
+      </c>
+      <c r="B53" s="33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="33">
+        <v>53</v>
+      </c>
+      <c r="B54" s="33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="33">
+        <v>54</v>
+      </c>
+      <c r="B55" s="33">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E1"/>
-    <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>